--- a/Tables/did_reg_pat.xlsx
+++ b/Tables/did_reg_pat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E787F-4417-4AFE-9A42-1E707EEEBEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832B857-F867-4C5A-9D82-543DB2B41090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_pat" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Observations</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>[2-50]</t>
+  </si>
+  <si>
+    <t>$H_0 : \alpha = 0$ (p-value)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -184,10 +187,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,6 +902,26 @@
           </cell>
           <cell r="K32" t="str">
             <v>761</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v/>
+          </cell>
+          <cell r="C33" t="str">
+            <v>0.00000050</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>2.1e-11</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>6.1e-09</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>0.0052</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>0.0017</v>
           </cell>
         </row>
       </sheetData>
@@ -1200,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22966959-63DB-41F0-96C7-D2C53CEFC3BA}">
-  <dimension ref="A2:O27"/>
+  <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O27" sqref="A2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,30 +1241,30 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -2120,102 +2147,143 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
+      <c r="A25" s="10" t="str">
         <f>[1]did_reg_pat!A30</f>
         <v>R-sq</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="11" t="str">
         <f>[1]did_reg_pat!B30</f>
         <v>0.286</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="11" t="str">
         <f>[1]did_reg_pat!C30</f>
         <v>0.295</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="str">
         <f>[1]did_reg_pat!D30</f>
         <v>0.186</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="11" t="str">
         <f>[1]did_reg_pat!E30</f>
         <v>0.193</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11" t="str">
         <f>[1]did_reg_pat!F30</f>
         <v>0.221</v>
       </c>
-      <c r="I25" s="3" t="str">
+      <c r="I25" s="11" t="str">
         <f>[1]did_reg_pat!G30</f>
         <v>0.227</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="str">
         <f>[1]did_reg_pat!H30</f>
         <v>0.313</v>
       </c>
-      <c r="L25" s="3" t="str">
+      <c r="L25" s="11" t="str">
         <f>[1]did_reg_pat!I30</f>
         <v>0.314</v>
       </c>
-      <c r="N25" s="3" t="str">
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="str">
         <f>[1]did_reg_pat!J30</f>
         <v>0.317</v>
       </c>
-      <c r="O25" s="3" t="str">
+      <c r="O25" s="11" t="str">
         <f>[1]did_reg_pat!K30</f>
         <v>0.305</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="str">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="str">
         <f>[1]did_reg_pat!A31</f>
         <v>DepVarMean</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="11" t="str">
         <f>[1]did_reg_pat!B31</f>
         <v>4.15</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="11" t="str">
         <f>[1]did_reg_pat!C31</f>
         <v>4.14</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="str">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="str">
         <f>[1]did_reg_pat!D31</f>
         <v>3.18</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="F26" s="11" t="str">
         <f>[1]did_reg_pat!E31</f>
         <v>3.17</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="str">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="str">
         <f>[1]did_reg_pat!F31</f>
         <v>3.66</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" s="11" t="str">
         <f>[1]did_reg_pat!G31</f>
         <v>3.65</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="str">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="str">
         <f>[1]did_reg_pat!H31</f>
         <v>1.60</v>
       </c>
-      <c r="L26" s="6" t="str">
+      <c r="L26" s="11" t="str">
         <f>[1]did_reg_pat!I31</f>
         <v>1.59</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6" t="str">
+      <c r="M26" s="11"/>
+      <c r="N26" s="11" t="str">
         <f>[1]did_reg_pat!J31</f>
         <v>1.28</v>
       </c>
-      <c r="O26" s="6" t="str">
+      <c r="O26" s="11" t="str">
         <f>[1]did_reg_pat!K31</f>
         <v>1.27</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6" t="str">
+        <f>[1]did_reg_pat!B33</f>
+        <v/>
+      </c>
+      <c r="C27" s="6">
+        <f>ROUND([1]did_reg_pat!C33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <f>ROUND([1]did_reg_pat!E33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <f>ROUND([1]did_reg_pat!G33,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <f>ROUND([1]did_reg_pat!I33,3)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6">
+        <f>ROUND([1]did_reg_pat!K33,3)</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>

--- a/Tables/did_reg_pat.xlsx
+++ b/Tables/did_reg_pat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832B857-F867-4C5A-9D82-543DB2B41090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C369093A-651B-4A83-B79E-458FAB9647E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
+    <workbookView xWindow="-28920" yWindow="-8190" windowWidth="29040" windowHeight="15720" xr2:uid="{83DCEEBE-B711-4EA6-8CCA-AE15FFD6ECFA}"/>
   </bookViews>
   <sheets>
     <sheet name="did_reg_pat" sheetId="1" r:id="rId1"/>
@@ -257,13 +257,13 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>-0.015</v>
+            <v>-0.014</v>
           </cell>
           <cell r="C5" t="str">
-            <v>-0.0017</v>
+            <v>-0.0019</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.00034</v>
+            <v>-0.00020</v>
           </cell>
           <cell r="E5" t="str">
             <v>0.0012</v>
@@ -272,7 +272,7 @@
             <v>-0.013</v>
           </cell>
           <cell r="G5" t="str">
-            <v>0.00050</v>
+            <v>0.00063</v>
           </cell>
           <cell r="H5" t="str">
             <v>-0.021</v>
@@ -321,22 +321,22 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>-0.0098*</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="C8" t="str">
-            <v>-0.0067</v>
+            <v>-0.0065</v>
           </cell>
           <cell r="D8" t="str">
-            <v>-0.0053</v>
+            <v>-0.0052</v>
           </cell>
           <cell r="E8" t="str">
-            <v>-0.0091</v>
+            <v>-0.0090</v>
           </cell>
           <cell r="F8" t="str">
-            <v>-0.0061</v>
+            <v>-0.0058</v>
           </cell>
           <cell r="G8" t="str">
-            <v>-0.0021</v>
+            <v>-0.0018</v>
           </cell>
           <cell r="H8" t="str">
             <v>-0.0097</v>
@@ -356,7 +356,7 @@
             <v>(0.0059)</v>
           </cell>
           <cell r="C9" t="str">
-            <v>(0.0052)</v>
+            <v>(0.0051)</v>
           </cell>
           <cell r="D9" t="str">
             <v>(0.0086)</v>
@@ -388,19 +388,19 @@
             <v>-0.0030</v>
           </cell>
           <cell r="C11" t="str">
-            <v>-0.0015</v>
+            <v>-0.0018</v>
           </cell>
           <cell r="D11" t="str">
-            <v>-0.0028</v>
+            <v>-0.0030</v>
           </cell>
           <cell r="E11" t="str">
-            <v>-0.0054</v>
+            <v>-0.0057</v>
           </cell>
           <cell r="F11" t="str">
-            <v>-0.00089</v>
+            <v>-0.00080</v>
           </cell>
           <cell r="G11" t="str">
-            <v>0.0011</v>
+            <v>0.0012</v>
           </cell>
           <cell r="H11" t="str">
             <v>-0.0072</v>
@@ -417,7 +417,7 @@
         </row>
         <row r="12">
           <cell r="B12" t="str">
-            <v>(0.0031)</v>
+            <v>(0.0030)</v>
           </cell>
           <cell r="C12" t="str">
             <v>(0.0027)</v>
@@ -449,25 +449,25 @@
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>-0.0042</v>
+            <v>-0.0043</v>
           </cell>
           <cell r="C14" t="str">
-            <v>-0.0038</v>
+            <v>-0.0039</v>
           </cell>
           <cell r="D14" t="str">
-            <v>-0.0094**</v>
+            <v>-0.0096**</v>
           </cell>
           <cell r="E14" t="str">
-            <v>-0.0067</v>
+            <v>-0.0069</v>
           </cell>
           <cell r="F14" t="str">
-            <v>-0.0033</v>
+            <v>-0.0035</v>
           </cell>
           <cell r="G14" t="str">
-            <v>-0.0028</v>
+            <v>-0.0030</v>
           </cell>
           <cell r="H14" t="str">
-            <v>-0.0033</v>
+            <v>-0.0034</v>
           </cell>
           <cell r="I14" t="str">
             <v>-0.0062</v>
@@ -513,22 +513,22 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>-0.0093*</v>
+            <v>-0.0090*</v>
           </cell>
           <cell r="C17" t="str">
-            <v>-0.0058</v>
+            <v>-0.0054</v>
           </cell>
           <cell r="D17" t="str">
             <v>-0.015**</v>
           </cell>
           <cell r="E17" t="str">
-            <v>-0.0070</v>
+            <v>-0.0072</v>
           </cell>
           <cell r="F17" t="str">
-            <v>-0.0097*</v>
+            <v>-0.0095*</v>
           </cell>
           <cell r="G17" t="str">
-            <v>-0.0060</v>
+            <v>-0.0058</v>
           </cell>
           <cell r="H17" t="str">
             <v>-0.0049</v>
@@ -548,7 +548,7 @@
             <v>(0.0049)</v>
           </cell>
           <cell r="C18" t="str">
-            <v>(0.0044)</v>
+            <v>(0.0043)</v>
           </cell>
           <cell r="D18" t="str">
             <v>(0.0074)</v>
@@ -577,22 +577,22 @@
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>-0.017**</v>
+            <v>-0.016**</v>
           </cell>
           <cell r="C20" t="str">
-            <v>-0.0088</v>
+            <v>-0.0081</v>
           </cell>
           <cell r="D20" t="str">
             <v>-0.022**</v>
           </cell>
           <cell r="E20" t="str">
-            <v>-0.0093</v>
+            <v>-0.0095</v>
           </cell>
           <cell r="F20" t="str">
             <v>-0.018**</v>
           </cell>
           <cell r="G20" t="str">
-            <v>-0.0096</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="H20" t="str">
             <v>-0.0017</v>
@@ -612,7 +612,7 @@
             <v>(0.0068)</v>
           </cell>
           <cell r="C21" t="str">
-            <v>(0.0061)</v>
+            <v>(0.0060)</v>
           </cell>
           <cell r="D21" t="str">
             <v>(0.0098)</v>
@@ -624,7 +624,7 @@
             <v>(0.0077)</v>
           </cell>
           <cell r="G21" t="str">
-            <v>(0.0066)</v>
+            <v>(0.0065)</v>
           </cell>
           <cell r="H21" t="str">
             <v>(0.022)</v>
@@ -641,16 +641,16 @@
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>-0.024***</v>
+            <v>-0.023***</v>
           </cell>
           <cell r="C23" t="str">
-            <v>-0.012*</v>
+            <v>-0.011</v>
           </cell>
           <cell r="D23" t="str">
-            <v>-0.026**</v>
+            <v>-0.027**</v>
           </cell>
           <cell r="E23" t="str">
-            <v>-0.0095</v>
+            <v>-0.0098</v>
           </cell>
           <cell r="F23" t="str">
             <v>-0.026***</v>
@@ -662,7 +662,7 @@
             <v>-0.0012</v>
           </cell>
           <cell r="I23" t="str">
-            <v>0.000090</v>
+            <v>0.000087</v>
           </cell>
           <cell r="J23" t="str">
             <v>-0.027</v>
@@ -673,10 +673,10 @@
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>(0.0083)</v>
+            <v>(0.0082)</v>
           </cell>
           <cell r="C24" t="str">
-            <v>(0.0073)</v>
+            <v>(0.0072)</v>
           </cell>
           <cell r="D24" t="str">
             <v>(0.012)</v>
@@ -705,22 +705,22 @@
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>-0.041***</v>
+            <v>-0.039***</v>
           </cell>
           <cell r="C26" t="str">
-            <v>-0.016**</v>
+            <v>-0.015*</v>
           </cell>
           <cell r="D26" t="str">
-            <v>-0.038**</v>
+            <v>-0.039***</v>
           </cell>
           <cell r="E26" t="str">
-            <v>-0.0090</v>
+            <v>-0.0093</v>
           </cell>
           <cell r="F26" t="str">
-            <v>-0.045***</v>
+            <v>-0.044***</v>
           </cell>
           <cell r="G26" t="str">
-            <v>-0.020**</v>
+            <v>-0.019**</v>
           </cell>
           <cell r="H26" t="str">
             <v>-0.019</v>
@@ -743,7 +743,7 @@
             <v>(0.010)</v>
           </cell>
           <cell r="C27" t="str">
-            <v>(0.0082)</v>
+            <v>(0.0080)</v>
           </cell>
           <cell r="D27" t="str">
             <v>(0.015)</v>
@@ -755,7 +755,7 @@
             <v>(0.011)</v>
           </cell>
           <cell r="G27" t="str">
-            <v>(0.0089)</v>
+            <v>(0.0088)</v>
           </cell>
           <cell r="H27" t="str">
             <v>(0.036)</v>
@@ -772,28 +772,28 @@
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>66268</v>
+            <v>65424</v>
           </cell>
           <cell r="C29" t="str">
-            <v>66127</v>
+            <v>65283</v>
           </cell>
           <cell r="D29" t="str">
-            <v>64223</v>
+            <v>63586</v>
           </cell>
           <cell r="E29" t="str">
-            <v>64082</v>
+            <v>63445</v>
           </cell>
           <cell r="F29" t="str">
-            <v>65802</v>
+            <v>65200</v>
           </cell>
           <cell r="G29" t="str">
-            <v>65661</v>
+            <v>65059</v>
           </cell>
           <cell r="H29" t="str">
-            <v>42849</v>
+            <v>42839</v>
           </cell>
           <cell r="I29" t="str">
-            <v>42708</v>
+            <v>42698</v>
           </cell>
           <cell r="J29" t="str">
             <v>24402</v>
@@ -807,22 +807,22 @@
             <v>R-sq</v>
           </cell>
           <cell r="B30" t="str">
-            <v>0.286</v>
+            <v>0.293</v>
           </cell>
           <cell r="C30" t="str">
-            <v>0.295</v>
+            <v>0.302</v>
           </cell>
           <cell r="D30" t="str">
-            <v>0.186</v>
+            <v>0.188</v>
           </cell>
           <cell r="E30" t="str">
-            <v>0.193</v>
+            <v>0.195</v>
           </cell>
           <cell r="F30" t="str">
-            <v>0.221</v>
+            <v>0.224</v>
           </cell>
           <cell r="G30" t="str">
-            <v>0.227</v>
+            <v>0.230</v>
           </cell>
           <cell r="H30" t="str">
             <v>0.313</v>
@@ -842,22 +842,22 @@
             <v>DepVarMean</v>
           </cell>
           <cell r="B31" t="str">
-            <v>4.15</v>
+            <v>4.20</v>
           </cell>
           <cell r="C31" t="str">
-            <v>4.14</v>
+            <v>4.19</v>
           </cell>
           <cell r="D31" t="str">
-            <v>3.18</v>
+            <v>3.21</v>
           </cell>
           <cell r="E31" t="str">
-            <v>3.17</v>
+            <v>3.20</v>
           </cell>
           <cell r="F31" t="str">
-            <v>3.66</v>
+            <v>3.69</v>
           </cell>
           <cell r="G31" t="str">
-            <v>3.65</v>
+            <v>3.68</v>
           </cell>
           <cell r="H31" t="str">
             <v>1.60</v>
@@ -874,28 +874,28 @@
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="C32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="D32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="E32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="F32" t="str">
-            <v>1410</v>
+            <v>1392</v>
           </cell>
           <cell r="G32" t="str">
-            <v>1407</v>
+            <v>1389</v>
           </cell>
           <cell r="H32" t="str">
-            <v>1208</v>
+            <v>1205</v>
           </cell>
           <cell r="I32" t="str">
-            <v>1205</v>
+            <v>1202</v>
           </cell>
           <cell r="J32" t="str">
             <v>764</v>
@@ -909,13 +909,13 @@
             <v/>
           </cell>
           <cell r="C33" t="str">
-            <v>0.00000050</v>
+            <v>0.00000085</v>
           </cell>
           <cell r="E33" t="str">
-            <v>2.1e-11</v>
+            <v>1.6e-11</v>
           </cell>
           <cell r="G33" t="str">
-            <v>6.1e-09</v>
+            <v>6.6e-09</v>
           </cell>
           <cell r="I33" t="str">
             <v>0.0052</v>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22966959-63DB-41F0-96C7-D2C53CEFC3BA}">
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O27" sqref="A2:O27"/>
     </sheetView>
   </sheetViews>
@@ -1358,15 +1358,15 @@
       </c>
       <c r="B5" s="3" t="str">
         <f>[1]did_reg_pat!B5</f>
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>[1]did_reg_pat!C5</f>
-        <v>-0.0017</v>
+        <v>-0.0019</v>
       </c>
       <c r="E5" s="3" t="str">
         <f>[1]did_reg_pat!D5</f>
-        <v>-0.00034</v>
+        <v>-0.00020</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>[1]did_reg_pat!E5</f>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I5" s="3" t="str">
         <f>[1]did_reg_pat!G5</f>
-        <v>0.00050</v>
+        <v>0.00063</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>[1]did_reg_pat!H5</f>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>[1]did_reg_pat!B8</f>
-        <v>-0.0098*</v>
+        <v>-0.0093</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>[1]did_reg_pat!C8</f>
-        <v>-0.0067</v>
+        <v>-0.0065</v>
       </c>
       <c r="E7" s="3" t="str">
         <f>[1]did_reg_pat!D8</f>
-        <v>-0.0053</v>
+        <v>-0.0052</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>[1]did_reg_pat!E8</f>
-        <v>-0.0091</v>
+        <v>-0.0090</v>
       </c>
       <c r="H7" s="3" t="str">
         <f>[1]did_reg_pat!F8</f>
-        <v>-0.0061</v>
+        <v>-0.0058</v>
       </c>
       <c r="I7" s="3" t="str">
         <f>[1]did_reg_pat!G8</f>
-        <v>-0.0021</v>
+        <v>-0.0018</v>
       </c>
       <c r="K7" s="3" t="str">
         <f>[1]did_reg_pat!H8</f>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>[1]did_reg_pat!C9</f>
-        <v>(0.0052)</v>
+        <v>(0.0051)</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>[1]did_reg_pat!D9</f>
@@ -1536,23 +1536,23 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>[1]did_reg_pat!C11</f>
-        <v>-0.0015</v>
+        <v>-0.0018</v>
       </c>
       <c r="E9" s="3" t="str">
         <f>[1]did_reg_pat!D11</f>
-        <v>-0.0028</v>
+        <v>-0.0030</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>[1]did_reg_pat!E11</f>
-        <v>-0.0054</v>
+        <v>-0.0057</v>
       </c>
       <c r="H9" s="3" t="str">
         <f>[1]did_reg_pat!F11</f>
-        <v>-0.00089</v>
+        <v>-0.00080</v>
       </c>
       <c r="I9" s="3" t="str">
         <f>[1]did_reg_pat!G11</f>
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K9" s="3" t="str">
         <f>[1]did_reg_pat!H11</f>
@@ -1574,7 +1574,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="str">
         <f>[1]did_reg_pat!B12</f>
-        <v>(0.0031)</v>
+        <v>(0.0030)</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>[1]did_reg_pat!C12</f>
@@ -1619,31 +1619,31 @@
       </c>
       <c r="B12" s="3" t="str">
         <f>[1]did_reg_pat!B14</f>
-        <v>-0.0042</v>
+        <v>-0.0043</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>[1]did_reg_pat!C14</f>
-        <v>-0.0038</v>
+        <v>-0.0039</v>
       </c>
       <c r="E12" s="3" t="str">
         <f>[1]did_reg_pat!D14</f>
-        <v>-0.0094**</v>
+        <v>-0.0096**</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>[1]did_reg_pat!E14</f>
-        <v>-0.0067</v>
+        <v>-0.0069</v>
       </c>
       <c r="H12" s="3" t="str">
         <f>[1]did_reg_pat!F14</f>
-        <v>-0.0033</v>
+        <v>-0.0035</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>[1]did_reg_pat!G14</f>
-        <v>-0.0028</v>
+        <v>-0.0030</v>
       </c>
       <c r="K12" s="3" t="str">
         <f>[1]did_reg_pat!H14</f>
-        <v>-0.0033</v>
+        <v>-0.0034</v>
       </c>
       <c r="L12" s="3" t="str">
         <f>[1]did_reg_pat!I14</f>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="B14" s="3" t="str">
         <f>[1]did_reg_pat!B17</f>
-        <v>-0.0093*</v>
+        <v>-0.0090*</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>[1]did_reg_pat!C17</f>
-        <v>-0.0058</v>
+        <v>-0.0054</v>
       </c>
       <c r="E14" s="3" t="str">
         <f>[1]did_reg_pat!D17</f>
@@ -1718,15 +1718,15 @@
       </c>
       <c r="F14" s="3" t="str">
         <f>[1]did_reg_pat!E17</f>
-        <v>-0.0070</v>
+        <v>-0.0072</v>
       </c>
       <c r="H14" s="3" t="str">
         <f>[1]did_reg_pat!F17</f>
-        <v>-0.0097*</v>
+        <v>-0.0095*</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>[1]did_reg_pat!G17</f>
-        <v>-0.0060</v>
+        <v>-0.0058</v>
       </c>
       <c r="K14" s="3" t="str">
         <f>[1]did_reg_pat!H17</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>[1]did_reg_pat!C18</f>
-        <v>(0.0044)</v>
+        <v>(0.0043)</v>
       </c>
       <c r="E15" s="3" t="str">
         <f>[1]did_reg_pat!D18</f>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="B16" s="3" t="str">
         <f>[1]did_reg_pat!B20</f>
-        <v>-0.017**</v>
+        <v>-0.016**</v>
       </c>
       <c r="C16" s="3" t="str">
         <f>[1]did_reg_pat!C20</f>
-        <v>-0.0088</v>
+        <v>-0.0081</v>
       </c>
       <c r="E16" s="3" t="str">
         <f>[1]did_reg_pat!D20</f>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F16" s="3" t="str">
         <f>[1]did_reg_pat!E20</f>
-        <v>-0.0093</v>
+        <v>-0.0095</v>
       </c>
       <c r="H16" s="3" t="str">
         <f>[1]did_reg_pat!F20</f>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="I16" s="3" t="str">
         <f>[1]did_reg_pat!G20</f>
-        <v>-0.0096</v>
+        <v>-0.0093</v>
       </c>
       <c r="K16" s="3" t="str">
         <f>[1]did_reg_pat!H20</f>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C17" s="3" t="str">
         <f>[1]did_reg_pat!C21</f>
-        <v>(0.0061)</v>
+        <v>(0.0060)</v>
       </c>
       <c r="E17" s="3" t="str">
         <f>[1]did_reg_pat!D21</f>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="I17" s="3" t="str">
         <f>[1]did_reg_pat!G21</f>
-        <v>(0.0066)</v>
+        <v>(0.0065)</v>
       </c>
       <c r="K17" s="3" t="str">
         <f>[1]did_reg_pat!H21</f>
@@ -1880,19 +1880,19 @@
       </c>
       <c r="B18" s="3" t="str">
         <f>[1]did_reg_pat!B23</f>
-        <v>-0.024***</v>
+        <v>-0.023***</v>
       </c>
       <c r="C18" s="3" t="str">
         <f>[1]did_reg_pat!C23</f>
-        <v>-0.012*</v>
+        <v>-0.011</v>
       </c>
       <c r="E18" s="3" t="str">
         <f>[1]did_reg_pat!D23</f>
-        <v>-0.026**</v>
+        <v>-0.027**</v>
       </c>
       <c r="F18" s="3" t="str">
         <f>[1]did_reg_pat!E23</f>
-        <v>-0.0095</v>
+        <v>-0.0098</v>
       </c>
       <c r="H18" s="3" t="str">
         <f>[1]did_reg_pat!F23</f>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="L18" s="3" t="str">
         <f>[1]did_reg_pat!I23</f>
-        <v>0.000090</v>
+        <v>0.000087</v>
       </c>
       <c r="N18" s="3" t="str">
         <f>[1]did_reg_pat!J23</f>
@@ -1922,11 +1922,11 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="str">
         <f>[1]did_reg_pat!B24</f>
-        <v>(0.0083)</v>
+        <v>(0.0082)</v>
       </c>
       <c r="C19" s="3" t="str">
         <f>[1]did_reg_pat!C24</f>
-        <v>(0.0073)</v>
+        <v>(0.0072)</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>[1]did_reg_pat!D24</f>
@@ -1967,27 +1967,27 @@
       </c>
       <c r="B20" s="3" t="str">
         <f>[1]did_reg_pat!B26</f>
-        <v>-0.041***</v>
+        <v>-0.039***</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>[1]did_reg_pat!C26</f>
-        <v>-0.016**</v>
+        <v>-0.015*</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>[1]did_reg_pat!D26</f>
-        <v>-0.038**</v>
+        <v>-0.039***</v>
       </c>
       <c r="F20" s="3" t="str">
         <f>[1]did_reg_pat!E26</f>
-        <v>-0.0090</v>
+        <v>-0.0093</v>
       </c>
       <c r="H20" s="3" t="str">
         <f>[1]did_reg_pat!F26</f>
-        <v>-0.045***</v>
+        <v>-0.044***</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>[1]did_reg_pat!G26</f>
-        <v>-0.020**</v>
+        <v>-0.019**</v>
       </c>
       <c r="K20" s="3" t="str">
         <f>[1]did_reg_pat!H26</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f>[1]did_reg_pat!C27</f>
-        <v>(0.0082)</v>
+        <v>(0.0080)</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>[1]did_reg_pat!D27</f>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="I21" s="3" t="str">
         <f>[1]did_reg_pat!G27</f>
-        <v>(0.0089)</v>
+        <v>(0.0088)</v>
       </c>
       <c r="K21" s="3" t="str">
         <f>[1]did_reg_pat!H27</f>
@@ -2058,38 +2058,38 @@
       </c>
       <c r="B23" s="5" t="str">
         <f>[1]did_reg_pat!B29</f>
-        <v>66268</v>
+        <v>65424</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>[1]did_reg_pat!C29</f>
-        <v>66127</v>
+        <v>65283</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="str">
         <f>[1]did_reg_pat!D29</f>
-        <v>64223</v>
+        <v>63586</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>[1]did_reg_pat!E29</f>
-        <v>64082</v>
+        <v>63445</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="str">
         <f>[1]did_reg_pat!F29</f>
-        <v>65802</v>
+        <v>65200</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>[1]did_reg_pat!G29</f>
-        <v>65661</v>
+        <v>65059</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5" t="str">
         <f>[1]did_reg_pat!H29</f>
-        <v>42849</v>
+        <v>42839</v>
       </c>
       <c r="L23" s="5" t="str">
         <f>[1]did_reg_pat!I29</f>
-        <v>42708</v>
+        <v>42698</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5" t="str">
@@ -2107,35 +2107,35 @@
       </c>
       <c r="B24" s="3" t="str">
         <f>[1]did_reg_pat!B32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="C24" s="3" t="str">
         <f>[1]did_reg_pat!C32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="E24" s="3" t="str">
         <f>[1]did_reg_pat!D32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>[1]did_reg_pat!E32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="H24" s="3" t="str">
         <f>[1]did_reg_pat!F32</f>
-        <v>1410</v>
+        <v>1392</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>[1]did_reg_pat!G32</f>
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="K24" s="3" t="str">
         <f>[1]did_reg_pat!H32</f>
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="L24" s="3" t="str">
         <f>[1]did_reg_pat!I32</f>
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="N24" s="3" t="str">
         <f>[1]did_reg_pat!J32</f>
@@ -2153,29 +2153,29 @@
       </c>
       <c r="B25" s="11" t="str">
         <f>[1]did_reg_pat!B30</f>
-        <v>0.286</v>
+        <v>0.293</v>
       </c>
       <c r="C25" s="11" t="str">
         <f>[1]did_reg_pat!C30</f>
-        <v>0.295</v>
+        <v>0.302</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="str">
         <f>[1]did_reg_pat!D30</f>
-        <v>0.186</v>
+        <v>0.188</v>
       </c>
       <c r="F25" s="11" t="str">
         <f>[1]did_reg_pat!E30</f>
-        <v>0.193</v>
+        <v>0.195</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11" t="str">
         <f>[1]did_reg_pat!F30</f>
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="I25" s="11" t="str">
         <f>[1]did_reg_pat!G30</f>
-        <v>0.227</v>
+        <v>0.230</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="str">
@@ -2203,29 +2203,29 @@
       </c>
       <c r="B26" s="11" t="str">
         <f>[1]did_reg_pat!B31</f>
-        <v>4.15</v>
+        <v>4.20</v>
       </c>
       <c r="C26" s="11" t="str">
         <f>[1]did_reg_pat!C31</f>
-        <v>4.14</v>
+        <v>4.19</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="str">
         <f>[1]did_reg_pat!D31</f>
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="F26" s="11" t="str">
         <f>[1]did_reg_pat!E31</f>
-        <v>3.17</v>
+        <v>3.20</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11" t="str">
         <f>[1]did_reg_pat!F31</f>
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="I26" s="11" t="str">
         <f>[1]did_reg_pat!G31</f>
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="str">
